--- a/biology/Histoire de la zoologie et de la botanique/Japetus_Steenstrup/Japetus_Steenstrup.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Japetus_Steenstrup/Japetus_Steenstrup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Japetus Smith Steenstrup, né le 8 mars 1813 à Vang sur l'ancienne île de Thy et mort le 20 juin 1897 à Copenhague, est un zoologue danois.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine et d’histoire naturelle, il fait des voyages scientifiques dans le Jutland, en Irlande, en Écosse et en Norvège de 1836 à 1844.
 En 1841, il devient maître-assistant en botanique et en minéralogie à l’Académie Soroe. En 1845, il devient professeur de zoologie à l’université de Copenhague puis dirige le Muséum d’histoire naturelle de la ville en 1848.
 Il est notamment l’auteur de Sur la propagation et le développement des animaux à travers une série de générations alternantes (1842) et de Recherches sur l’existence des hermaphrodites dans la nature (1846).
 Il découvre, indépendamment de Adelbert von Chamisso (1781-1838), l’alternance de générations en hérédité. Il étudie particulièrement les céphalopodes.
-L'une des publications du musée de zoologie de l'université de Copenhague porte aujourd'hui son nom Steenstrupia[1].
+L'une des publications du musée de zoologie de l'université de Copenhague porte aujourd'hui son nom Steenstrupia.
 L'IPNI lui attribue une abréviation en botanique, sans plus de précision. 
 </t>
         </is>
